--- a/Sarveshdata.xlsx
+++ b/Sarveshdata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubdhapimpale/Desktop/USC/NLP/Project/NLP-Project-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY\USC courses\2nd sem\NLP\Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2702A85-6BDB-B54A-8F97-8ECF8F64A2DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08592FAA-E7A5-4D75-857D-6B2F30070801}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="460" windowWidth="26680" windowHeight="16720" xr2:uid="{EC15DB51-9DCB-4115-8E22-75DADC6949F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332" xr2:uid="{EC15DB51-9DCB-4115-8E22-75DADC6949F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="262">
   <si>
     <t>A strange little match which never rose above the levels of mediocrity finally ends. Sri Lanka huffed and puffed their way to 236, not showing any intent even during the slog overs. Chandimal was the star with a fine 92. The chase was methodical as each and every batsman made handy contributions. JPD and Amla made fifties to anchor a good chase. The visitors have all the work to do ahead of the next 3 matches with the hosts sitting pretty at 2-0</t>
   </si>
@@ -386,12 +386,6 @@
     <t>England got off to a bad start as they lost Hales, but KP and Kieswetter managed to increase the scoring rate. Morgan was the star in the middle overs as he scored a brisk 49. Samit Patel and Bopara stayed till the end and took England over the line as they won the one-off T20I by six wickets</t>
   </si>
   <si>
-    <t>The game has been called off. Rain has had the last word today. It was shaping up to be a good game but it has been nipped in the bud. India will take a lot of confidence from their batting performance today.</t>
-  </si>
-  <si>
-    <t>Match abandoned due to rain: No result</t>
-  </si>
-  <si>
     <t>England can do no wrong here. After they got off to a superb start, the spinners, led by Jadeja and Ashwin, pulled things back by picking two wickets, with a third one being taken by Munaf. After a short rain delay, the target was reduced to 218 in 43 overs. Stokes and Bopara played steadily. Bopara guided the chase beautifully and he got good support from Bresnan. In the end, England managed to scrape through by three wickets.</t>
   </si>
   <si>
@@ -693,15 +687,6 @@
   </si>
   <si>
     <t>WI BAN</t>
-  </si>
-  <si>
-    <t>It has been a great pity for the fans who were expecting a cracker of a match. Both teams will share points. In the end, the downpour that started at the end of the 33rd over was enough to ruin the game totally.</t>
-  </si>
-  <si>
-    <t>Match abandoned due to rain</t>
-  </si>
-  <si>
-    <t>SL AUS</t>
   </si>
   <si>
     <t>Ladies and Gentlemen, the word choke has a new meaning in all dictionaries. The new meaning reads South Africa. Only they could conspire to lose from a winning situation. It looked great at 124/3, but they lost 4 wickets for just just three runs. Wyk and Steyn strung together a gritty 33 run stand, but Bresnan sent Wyk back and it looked like the game would go down the wire. Broad produced a miracle as he snapped up the final two wickets. Credit for this victory must go to Graeme Swann who bowled an excellent spell. He had Smith all at sea against his ripping off-breaks. In the end, a combined team effort has seen England win an absolute thriller by six runs.</t>
@@ -1038,10 +1023,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DE8F49B-150D-4C2E-BABB-3ECCB3189C75}" name="Table1" displayName="Table1" ref="A1:E110" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:E110" xr:uid="{97987622-ACE7-4B3B-B906-C90874537283}"/>
-  <sortState ref="A2:E110">
-    <sortCondition ref="E1:E110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9DE8F49B-150D-4C2E-BABB-3ECCB3189C75}" name="Table1" displayName="Table1" ref="A1:E108" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:E108" xr:uid="{97987622-ACE7-4B3B-B906-C90874537283}"/>
+  <sortState ref="A2:E108">
+    <sortCondition ref="E1:E108"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CEDF1AC7-0CC6-401D-B314-3C6F71FA4970}" name="text" dataDxfId="3"/>
@@ -1351,280 +1336,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002A4BB-D568-49BC-A9C6-E7C27B824554}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="63.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
+    <row r="5" spans="1:5" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
+    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -1636,542 +1621,542 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E47" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>34</v>
+    <row r="48" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>36</v>
@@ -2180,15 +2165,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>36</v>
@@ -2197,46 +2182,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E50" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
+    <row r="51" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="176" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>47</v>
+    <row r="52" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -2248,49 +2233,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E53" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>56</v>
@@ -2299,100 +2284,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>89</v>
@@ -2401,100 +2386,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E65" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>23</v>
@@ -2503,734 +2488,700 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="E85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E71" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B78" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E78" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E79" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B81" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="176" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B83" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E83" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E84" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B85" t="s">
-        <v>248</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E85" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E86" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E87" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E88" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>17</v>
+    <row r="89" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E89" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>49</v>
+    <row r="90" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E90" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E91" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="E96" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E97" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E98" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E99" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E100" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="E101" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B102" t="s">
-        <v>58</v>
+    <row r="102" spans="1:5" ht="156" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="E102" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B103" t="s">
-        <v>254</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="E103" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E104" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>22</v>
+    <row r="105" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>44</v>
+    <row r="106" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" t="s">
+        <v>174</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E106" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="E107" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="E108" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B109" t="s">
-        <v>203</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E109" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="320" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E110" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Sarveshdata.xlsx
+++ b/Sarveshdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY\USC courses\2nd sem\NLP\Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08592FAA-E7A5-4D75-857D-6B2F30070801}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E5AE941-1B66-45E1-86D7-21A890FC4447}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332" xr2:uid="{EC15DB51-9DCB-4115-8E22-75DADC6949F0}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>Pakistan won by 50 runs</t>
   </si>
   <si>
-    <t>T-20</t>
-  </si>
-  <si>
     <t>PK BAN</t>
   </si>
   <si>
@@ -905,6 +902,9 @@
   </si>
   <si>
     <t>match_type</t>
+  </si>
+  <si>
+    <t>T20</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002A4BB-D568-49BC-A9C6-E7C27B824554}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,19 +1351,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -1385,16 +1385,16 @@
     </row>
     <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="4" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1442,10 +1442,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1453,16 +1453,16 @@
     </row>
     <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1470,16 +1470,16 @@
     </row>
     <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="9" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1504,16 +1504,16 @@
     </row>
     <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1521,16 +1521,16 @@
     </row>
     <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -1538,16 +1538,16 @@
     </row>
     <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -1555,16 +1555,16 @@
     </row>
     <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -1589,16 +1589,16 @@
     </row>
     <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
         <v>96</v>
       </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1640,16 +1640,16 @@
     </row>
     <row r="18" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="19" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -1674,16 +1674,16 @@
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1708,16 +1708,16 @@
     </row>
     <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
         <v>141</v>
       </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="24" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1759,16 +1759,16 @@
     </row>
     <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
         <v>157</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
         <v>160</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1810,16 +1810,16 @@
     </row>
     <row r="28" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
         <v>163</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="29" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -1844,16 +1844,16 @@
     </row>
     <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -1861,16 +1861,16 @@
     </row>
     <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1878,16 +1878,16 @@
     </row>
     <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" t="s">
         <v>194</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
         <v>223</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -1912,16 +1912,16 @@
     </row>
     <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -1929,16 +1929,16 @@
     </row>
     <row r="35" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" t="s">
         <v>230</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
         <v>233</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="37" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
         <v>236</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
@@ -1980,16 +1980,16 @@
     </row>
     <row r="38" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="39" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
         <v>245</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -2014,16 +2014,16 @@
     </row>
     <row r="40" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2048,16 +2048,16 @@
     </row>
     <row r="42" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -2065,16 +2065,16 @@
     </row>
     <row r="43" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="44" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="45" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2">
         <v>3</v>
@@ -2116,16 +2116,16 @@
     </row>
     <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
@@ -2133,16 +2133,16 @@
     </row>
     <row r="47" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" s="2">
         <v>3</v>
@@ -2150,16 +2150,16 @@
     </row>
     <row r="48" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" s="2">
         <v>3</v>
@@ -2167,16 +2167,16 @@
     </row>
     <row r="49" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2">
         <v>3</v>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="50" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E50" s="2">
         <v>3</v>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="51" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
@@ -2218,16 +2218,16 @@
     </row>
     <row r="52" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="2">
         <v>3</v>
@@ -2235,16 +2235,16 @@
     </row>
     <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E53" s="2">
         <v>3</v>
@@ -2252,16 +2252,16 @@
     </row>
     <row r="54" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="55" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
@@ -2286,16 +2286,16 @@
     </row>
     <row r="56" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
@@ -2303,16 +2303,16 @@
     </row>
     <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
         <v>79</v>
       </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
@@ -2320,16 +2320,16 @@
     </row>
     <row r="58" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="59" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
         <v>87</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
@@ -2354,16 +2354,16 @@
     </row>
     <row r="60" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
         <v>92</v>
       </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
@@ -2371,16 +2371,16 @@
     </row>
     <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="B61" t="s">
-        <v>100</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -2388,16 +2388,16 @@
     </row>
     <row r="62" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
@@ -2405,16 +2405,16 @@
     </row>
     <row r="63" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2">
         <v>3</v>
@@ -2422,16 +2422,16 @@
     </row>
     <row r="64" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="B64" t="s">
-        <v>109</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
@@ -2439,16 +2439,16 @@
     </row>
     <row r="65" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
         <v>110</v>
       </c>
-      <c r="B65" t="s">
-        <v>111</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
         <v>3</v>
@@ -2456,16 +2456,16 @@
     </row>
     <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
@@ -2473,16 +2473,16 @@
     </row>
     <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
         <v>116</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" s="2">
         <v>3</v>
@@ -2490,16 +2490,16 @@
     </row>
     <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E68" s="2">
         <v>3</v>
@@ -2507,16 +2507,16 @@
     </row>
     <row r="69" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
         <v>128</v>
       </c>
-      <c r="B69" t="s">
-        <v>129</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2">
         <v>3</v>
@@ -2524,16 +2524,16 @@
     </row>
     <row r="70" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2">
         <v>3</v>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="71" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E71" s="2">
         <v>3</v>
@@ -2558,16 +2558,16 @@
     </row>
     <row r="72" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
         <v>147</v>
       </c>
-      <c r="B72" t="s">
-        <v>148</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72" s="2">
         <v>3</v>
@@ -2575,16 +2575,16 @@
     </row>
     <row r="73" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
         <v>167</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E73" s="2">
         <v>3</v>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="74" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
         <v>175</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E74" s="2">
         <v>3</v>
@@ -2609,16 +2609,16 @@
     </row>
     <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" t="s">
         <v>183</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E75" s="2">
         <v>3</v>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="76" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
         <v>186</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E76" s="2">
         <v>3</v>
@@ -2643,16 +2643,16 @@
     </row>
     <row r="77" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
         <v>189</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E77" s="2">
         <v>3</v>
@@ -2660,16 +2660,16 @@
     </row>
     <row r="78" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
         <v>203</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E78" s="2">
         <v>3</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="79" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
         <v>206</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E79" s="2">
         <v>3</v>
@@ -2694,16 +2694,16 @@
     </row>
     <row r="80" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" t="s">
         <v>209</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E80" s="2">
         <v>3</v>
@@ -2711,16 +2711,16 @@
     </row>
     <row r="81" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" t="s">
         <v>220</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E81" s="2">
         <v>3</v>
@@ -2728,16 +2728,16 @@
     </row>
     <row r="82" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
@@ -2745,16 +2745,16 @@
     </row>
     <row r="83" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="s">
         <v>242</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E83" s="2">
         <v>3</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="84" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2771,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E84" s="2">
         <v>3</v>
@@ -2779,16 +2779,16 @@
     </row>
     <row r="85" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E85" s="2">
         <v>4</v>
@@ -2796,16 +2796,16 @@
     </row>
     <row r="86" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
@@ -2813,16 +2813,16 @@
     </row>
     <row r="87" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E87" s="2">
         <v>4</v>
@@ -2830,16 +2830,16 @@
     </row>
     <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2">
         <v>4</v>
@@ -2847,16 +2847,16 @@
     </row>
     <row r="89" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
         <v>54</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E89" s="2">
         <v>4</v>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="90" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
         <v>57</v>
       </c>
-      <c r="B90" t="s">
-        <v>58</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E90" s="2">
         <v>4</v>
@@ -2881,16 +2881,16 @@
     </row>
     <row r="91" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
         <v>63</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E91" s="2">
         <v>4</v>
@@ -2898,16 +2898,16 @@
     </row>
     <row r="92" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E92" s="2">
         <v>4</v>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="93" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2">
         <v>4</v>
@@ -2932,16 +2932,16 @@
     </row>
     <row r="94" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" t="s">
         <v>134</v>
       </c>
-      <c r="B94" t="s">
-        <v>135</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2">
         <v>4</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="95" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -2958,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95" s="2">
         <v>4</v>
@@ -2966,16 +2966,16 @@
     </row>
     <row r="96" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
         <v>170</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E96" s="2">
         <v>4</v>
@@ -2983,16 +2983,16 @@
     </row>
     <row r="97" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" t="s">
         <v>178</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E97" s="2">
         <v>4</v>
@@ -3000,16 +3000,16 @@
     </row>
     <row r="98" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
         <v>200</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E98" s="2">
         <v>4</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="99" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" t="s">
         <v>212</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="E99" s="2">
         <v>4</v>
@@ -3034,16 +3034,16 @@
     </row>
     <row r="100" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E100" s="2">
         <v>4</v>
@@ -3051,16 +3051,16 @@
     </row>
     <row r="101" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" t="s">
         <v>248</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E101" s="2">
         <v>4</v>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="103" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E103" s="2">
         <v>5</v>
@@ -3102,16 +3102,16 @@
     </row>
     <row r="104" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E104" s="2">
         <v>5</v>
@@ -3119,16 +3119,16 @@
     </row>
     <row r="105" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" t="s">
         <v>136</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E105" s="2">
         <v>5</v>
@@ -3136,16 +3136,16 @@
     </row>
     <row r="106" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" t="s">
         <v>173</v>
       </c>
-      <c r="B106" t="s">
-        <v>174</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E106" s="2">
         <v>5</v>
@@ -3153,16 +3153,16 @@
     </row>
     <row r="107" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
         <v>197</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E107" s="2">
         <v>5</v>
@@ -3170,16 +3170,16 @@
     </row>
     <row r="108" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
         <v>215</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E108" s="2">
         <v>5</v>
